--- a/biology/Zoologie/Itemirus/Itemirus.xlsx
+++ b/biology/Zoologie/Itemirus/Itemirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itemirus medullaris
 Itemirus est un genre de dinosaures théropodes de la famille des droméosauridés. 
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce dinosaure carnivore vivait pendant le Crétacé supérieur, il y a 91 millions d'années[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce dinosaure carnivore vivait pendant le Crétacé supérieur, il y a 91 millions d'années. 
 </t>
         </is>
       </c>
@@ -544,11 +558,48 @@
           <t>Publication initiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Article
-(en) S. M. Kurzanov, « Braincase structure in the carnosaur Itemirus n. gen. and some aspects of the cranial anatomy of dinosaurs », Paleontological Journal, vol. 10,‎ 1976, p. 361-369. </t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Itemirus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Itemirus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publication initiale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) S. M. Kurzanov, « Braincase structure in the carnosaur Itemirus n. gen. and some aspects of the cranial anatomy of dinosaurs », Paleontological Journal, vol. 10,‎ 1976, p. 361-369. </t>
         </is>
       </c>
     </row>
